--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptVDT_TongHopQuyetToanDuAnHoanThanh.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptVDT_TongHopQuyetToanDuAnHoanThanh.xlsx
@@ -124,21 +124,6 @@
     <t>I. Nguồn vốn đầu tư:</t>
   </si>
   <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ố TT</t>
-    </r>
-  </si>
-  <si>
     <t>Tên nguồn vốn</t>
   </si>
   <si>
@@ -191,51 +176,6 @@
   </si>
   <si>
     <t>&lt;#MLNS.NoiDung&gt;&lt;#AltFormatMLNS&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>II. Chi phí đ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ầu tư đề nghị quyết toán:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>III. Chi phí đ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ầu tư không tính vào giá trị tài sản hình thành sau đầu tư:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V. Thuy</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ết minh báo cáo quyết toán</t>
-    </r>
   </si>
   <si>
     <t>&lt;#TinhHinhThucHienDuAn&gt;</t>
@@ -393,12 +333,72 @@
   <si>
     <t>Tổng mức đầu tư: &lt;#TongMucDauTu&gt;</t>
   </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ố TT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>II. Chi phí đ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ầu tư đề nghị quyết toán:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>III. Chi phí đ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ầu tư không tính vào giá trị tài sản hình thành sau đầu tư:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V. Thuy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ết minh báo cáo quyết toán</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,13 +454,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -491,6 +484,33 @@
       <u/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -726,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -746,46 +766,16 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,23 +784,11 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -824,39 +802,12 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -867,86 +818,174 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1234,8 +1273,8 @@
   </sheetPr>
   <dimension ref="A1:M974"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,11 +1291,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -1267,15 +1306,15 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="55" t="s">
-        <v>56</v>
+      <c r="B2" s="32" t="s">
+        <v>52</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -1286,11 +1325,11 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1301,11 +1340,11 @@
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -1314,15 +1353,15 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="57" t="s">
-        <v>55</v>
+      <c r="B5" s="15"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="55" t="s">
+        <v>51</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -1333,11 +1372,11 @@
     </row>
     <row r="6" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1346,10 +1385,10 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="54" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -1365,11 +1404,11 @@
     </row>
     <row r="8" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1378,15 +1417,15 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49" t="s">
-        <v>101</v>
+      <c r="B9" s="27"/>
+      <c r="C9" s="56" t="s">
+        <v>97</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="44"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1395,15 +1434,15 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
-        <v>103</v>
+      <c r="B10" s="28"/>
+      <c r="C10" s="53" t="s">
+        <v>99</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1412,15 +1451,15 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52" t="s">
-        <v>102</v>
+      <c r="B11" s="29"/>
+      <c r="C11" s="60" t="s">
+        <v>98</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="44"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1431,11 +1470,11 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1444,15 +1483,15 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1461,21 +1500,21 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="D14" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="63"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1486,14 +1525,14 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="46" t="s">
-        <v>91</v>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="37" t="s">
+        <v>87</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>92</v>
+      <c r="F15" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1505,20 +1544,20 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>98</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1528,20 +1567,20 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="41" t="s">
-        <v>67</v>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39" t="s">
+        <v>63</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>68</v>
+      <c r="D17" s="40" t="s">
+        <v>64</v>
       </c>
-      <c r="E17" s="43" t="s">
-        <v>69</v>
+      <c r="E17" s="40" t="s">
+        <v>65</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>70</v>
+      <c r="F17" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -1551,38 +1590,38 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="23" t="s">
-        <v>44</v>
+    <row r="18" spans="1:13" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="41" t="s">
+        <v>43</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>47</v>
+      <c r="C18" s="52" t="s">
+        <v>46</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1594,10 +1633,10 @@
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1606,11 +1645,11 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
-        <v>49</v>
+      <c r="B21" s="16"/>
+      <c r="C21" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1623,22 +1662,22 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="25" t="s">
-        <v>30</v>
+      <c r="B22" s="36" t="s">
+        <v>100</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>99</v>
+      <c r="F22" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -1648,20 +1687,20 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="46" t="s">
-        <v>94</v>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37" t="s">
+        <v>90</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>95</v>
+      <c r="D23" s="37" t="s">
+        <v>91</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>96</v>
+      <c r="E23" s="37" t="s">
+        <v>92</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>97</v>
+      <c r="F23" s="37" t="s">
+        <v>93</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -1671,20 +1710,20 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>71</v>
+      <c r="E24" s="40" t="s">
+        <v>68</v>
       </c>
-      <c r="E24" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>73</v>
+      <c r="F24" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -1694,38 +1733,38 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" s="40" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="23" t="s">
-        <v>46</v>
+    <row r="25" spans="1:13" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="41" t="s">
+        <v>45</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>48</v>
+      <c r="C25" s="87" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1734,11 +1773,11 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
-        <v>50</v>
+      <c r="B27" s="16"/>
+      <c r="C27" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1751,15 +1790,15 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45" t="s">
-        <v>63</v>
+    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63" t="s">
+        <v>59</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="12"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -1768,15 +1807,15 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45" t="s">
-        <v>64</v>
+    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63" t="s">
+        <v>60</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="12"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -1785,15 +1824,15 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17" t="s">
-        <v>36</v>
+    <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="62"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53" t="s">
+        <v>35</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -1802,19 +1841,19 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="25" t="s">
-        <v>30</v>
+      <c r="B31" s="36" t="s">
+        <v>100</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -1823,17 +1862,17 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="69" t="s">
-        <v>35</v>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68" t="s">
+        <v>34</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="75" t="s">
-        <v>74</v>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70" t="s">
+        <v>70</v>
       </c>
-      <c r="F32" s="76"/>
+      <c r="F32" s="71"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -1842,19 +1881,19 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="23">
+      <c r="B33" s="41">
         <v>1</v>
       </c>
-      <c r="C33" s="71" t="s">
-        <v>39</v>
+      <c r="C33" s="72" t="s">
+        <v>38</v>
       </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="77" t="s">
-        <v>65</v>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74" t="s">
+        <v>61</v>
       </c>
-      <c r="F33" s="78"/>
+      <c r="F33" s="75"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -1863,19 +1902,19 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="20">
+      <c r="B34" s="43">
         <v>2</v>
       </c>
-      <c r="C34" s="73" t="s">
-        <v>40</v>
+      <c r="C34" s="76" t="s">
+        <v>39</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="79" t="s">
-        <v>66</v>
+      <c r="D34" s="77"/>
+      <c r="E34" s="78" t="s">
+        <v>62</v>
       </c>
-      <c r="F34" s="80"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -1884,15 +1923,15 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17" t="s">
-        <v>51</v>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53" t="s">
+        <v>103</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -1901,15 +1940,15 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26" t="s">
-        <v>41</v>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80" t="s">
+        <v>40</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="13"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -1918,15 +1957,15 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="64" t="s">
-        <v>52</v>
+      <c r="B37" s="57"/>
+      <c r="C37" s="81" t="s">
+        <v>48</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -1937,13 +1976,13 @@
     </row>
     <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26" t="s">
-        <v>42</v>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80" t="s">
+        <v>41</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="13"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -1952,15 +1991,15 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50" t="s">
-        <v>53</v>
+      <c r="B39" s="82"/>
+      <c r="C39" s="81" t="s">
+        <v>49</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -1971,13 +2010,13 @@
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31" t="s">
-        <v>43</v>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57" t="s">
+        <v>42</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="13"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -1986,15 +2025,15 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26" t="s">
-        <v>54</v>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81" t="s">
+        <v>50</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -2006,10 +2045,10 @@
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -2020,17 +2059,17 @@
     </row>
     <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="B43" s="65" t="s">
-        <v>75</v>
+      <c r="B43" s="83" t="s">
+        <v>71</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="48" t="s">
-        <v>76</v>
+      <c r="C43" s="83"/>
+      <c r="D43" s="84" t="s">
+        <v>72</v>
       </c>
-      <c r="E43" s="65" t="s">
-        <v>77</v>
+      <c r="E43" s="83" t="s">
+        <v>73</v>
       </c>
-      <c r="F43" s="65"/>
+      <c r="F43" s="83"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -2041,90 +2080,103 @@
     </row>
     <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="83"/>
+      <c r="D44" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="83"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="86"/>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="83"/>
+      <c r="D47" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="83"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="86"/>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="86"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="62"/>
+      <c r="E51" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="62"/>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="86"/>
+      <c r="E52" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44" s="65"/>
-      <c r="M44" s="12"/>
-    </row>
-    <row r="45" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="M45" s="12"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="M46" s="12"/>
-    </row>
-    <row r="47" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="65"/>
-      <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="M48" s="12"/>
-    </row>
-    <row r="49" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="12"/>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52" s="47"/>
+      <c r="F52" s="86"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -2133,47 +2185,56 @@
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="85"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="D54" s="47"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="48" t="s">
-        <v>88</v>
+      <c r="B55" s="62"/>
+      <c r="C55" s="84" t="s">
+        <v>84</v>
       </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48" t="s">
-        <v>89</v>
+      <c r="D55" s="86"/>
+      <c r="E55" s="84" t="s">
+        <v>85</v>
       </c>
+      <c r="F55" s="85"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="D56" s="47"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
@@ -2183,9 +2244,9 @@
     <row r="57" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
@@ -2195,9 +2256,9 @@
     <row r="58" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
@@ -2207,9 +2268,9 @@
     <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="47"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="26"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
@@ -2221,7 +2282,7 @@
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="47"/>
+      <c r="E60" s="26"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
@@ -2231,7 +2292,7 @@
     <row r="61" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
-      <c r="D61" s="47"/>
+      <c r="D61" s="26"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -2244,8 +2305,8 @@
     <row r="62" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -2258,8 +2319,8 @@
     <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -2272,8 +2333,8 @@
     <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -2286,8 +2347,8 @@
     <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -2300,8 +2361,8 @@
     <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -2314,8 +2375,8 @@
     <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -2328,8 +2389,8 @@
     <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -15925,7 +15986,7 @@
       <c r="M974" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="B47:C47"/>
@@ -15945,6 +16006,8 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C41:F41"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -16194,7 +16257,7 @@
         <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptVDT_TongHopQuyetToanDuAnHoanThanh.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptVDT_TongHopQuyetToanDuAnHoanThanh.xlsx
@@ -145,9 +145,6 @@
     <t>Nhóm</t>
   </si>
   <si>
-    <t>Giá trị tài sản (đồng)</t>
-  </si>
-  <si>
     <t>Tài sản dài hạn (tài sản cố định)</t>
   </si>
   <si>
@@ -209,12 +206,6 @@
   </si>
   <si>
     <t>&lt;#MLNS.DaThanhToan&gt;&lt;#AltFormatMLNS&gt;</t>
-  </si>
-  <si>
-    <t>1. Chi phí thiệt hại do các nguyên nhân bất khả kháng: &lt;#NguyenNhanBatKhaKhang&gt;</t>
-  </si>
-  <si>
-    <t>2. Chi phí không tạo nên tài sản: &lt;#ChiPhiKhongTaoTaiSan&gt;</t>
   </si>
   <si>
     <t>&lt;#TaiSanDaiHan&gt;</t>
@@ -331,9 +322,6 @@
     <t>Chủ đầu tư: &lt;#ChuDauTu&gt;</t>
   </si>
   <si>
-    <t>Tổng mức đầu tư: &lt;#TongMucDauTu&gt;</t>
-  </si>
-  <si>
     <r>
       <t>S</t>
     </r>
@@ -392,6 +380,18 @@
       </rPr>
       <t>ết minh báo cáo quyết toán</t>
     </r>
+  </si>
+  <si>
+    <t>Giá trị tài sản (&lt;#DonViTinh&gt;)</t>
+  </si>
+  <si>
+    <t>Tổng mức đầu tư: &lt;#TongMucDauTu&gt; &lt;#DonViTinh&gt;</t>
+  </si>
+  <si>
+    <t>1. Chi phí thiệt hại do các nguyên nhân bất khả kháng: &lt;#NguyenNhanBatKhaKhang&gt; &lt;#DonViTinh&gt;</t>
+  </si>
+  <si>
+    <t>2. Chi phí không tạo nên tài sản: &lt;#ChiPhiKhongTaoTaiSan&gt; &lt;#DonViTinh&gt;</t>
   </si>
 </sst>
 </file>
@@ -815,24 +815,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -863,35 +845,11 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -920,62 +878,14 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -986,6 +896,96 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1273,8 +1273,8 @@
   </sheetPr>
   <dimension ref="A1:M974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,11 +1291,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -1306,15 +1306,15 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="32" t="s">
-        <v>52</v>
+      <c r="B2" s="86" t="s">
+        <v>51</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -1325,11 +1325,11 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1342,9 +1342,9 @@
       <c r="A4" s="12"/>
       <c r="B4" s="14"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -1357,11 +1357,11 @@
       <c r="A5" s="12"/>
       <c r="B5" s="15"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="55" t="s">
-        <v>51</v>
+      <c r="D5" s="78" t="s">
+        <v>50</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="54" t="s">
-        <v>86</v>
+      <c r="B7" s="79" t="s">
+        <v>83</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1404,11 +1404,11 @@
     </row>
     <row r="8" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1420,12 +1420,12 @@
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="27"/>
-      <c r="C9" s="56" t="s">
-        <v>97</v>
+      <c r="C9" s="42" t="s">
+        <v>94</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1437,12 +1437,12 @@
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="53" t="s">
-        <v>99</v>
+      <c r="C10" s="41" t="s">
+        <v>101</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="59"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1454,12 +1454,12 @@
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="60" t="s">
-        <v>98</v>
+      <c r="C11" s="46" t="s">
+        <v>95</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1486,7 +1486,7 @@
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="13"/>
@@ -1502,19 +1502,19 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="46" t="s">
-        <v>100</v>
+      <c r="B14" s="81" t="s">
+        <v>96</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="47" t="s">
-        <v>89</v>
+      <c r="D14" s="83" t="s">
+        <v>86</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1525,14 +1525,14 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="37" t="s">
-        <v>87</v>
+      <c r="B15" s="82"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="31" t="s">
+        <v>84</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>88</v>
+      <c r="F15" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1544,20 +1544,20 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="F16" s="31" t="s">
         <v>91</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>94</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1569,18 +1569,18 @@
     </row>
     <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>66</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -1592,20 +1592,20 @@
     </row>
     <row r="18" spans="1:13" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="41" t="s">
-        <v>43</v>
+      <c r="B18" s="35" t="s">
+        <v>42</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>46</v>
+      <c r="C18" s="40" t="s">
+        <v>45</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="F18" s="36" t="s">
         <v>54</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
@@ -1617,11 +1617,11 @@
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1648,8 +1648,8 @@
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="53" t="s">
-        <v>101</v>
+      <c r="C21" s="41" t="s">
+        <v>97</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1664,20 +1664,20 @@
     </row>
     <row r="22" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="36" t="s">
-        <v>100</v>
+      <c r="B22" s="30" t="s">
+        <v>96</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>96</v>
+      <c r="D22" s="31" t="s">
+        <v>93</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="37" t="s">
-        <v>95</v>
+      <c r="F22" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -1689,18 +1689,18 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>93</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -1712,18 +1712,18 @@
     </row>
     <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39" t="s">
-        <v>63</v>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33" t="s">
+        <v>60</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>67</v>
+      <c r="D24" s="34" t="s">
+        <v>64</v>
       </c>
-      <c r="E24" s="40" t="s">
-        <v>68</v>
+      <c r="E24" s="34" t="s">
+        <v>65</v>
       </c>
-      <c r="F24" s="40" t="s">
-        <v>69</v>
+      <c r="F24" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -1735,20 +1735,20 @@
     </row>
     <row r="25" spans="1:13" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
-      <c r="B25" s="41" t="s">
-        <v>45</v>
+      <c r="B25" s="35" t="s">
+        <v>44</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>47</v>
+      <c r="C25" s="57" t="s">
+        <v>46</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="F25" s="36" t="s">
         <v>57</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>58</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -1760,11 +1760,11 @@
     </row>
     <row r="26" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1776,8 +1776,8 @@
     <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="53" t="s">
-        <v>102</v>
+      <c r="C27" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1791,14 +1791,14 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63" t="s">
-        <v>59</v>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49" t="s">
+        <v>102</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="62"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -1808,14 +1808,14 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63" t="s">
-        <v>60</v>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49" t="s">
+        <v>103</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="62"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -1825,14 +1825,14 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -1843,17 +1843,17 @@
     </row>
     <row r="31" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="65"/>
+      <c r="E31" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -1864,15 +1864,15 @@
     </row>
     <row r="32" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70" t="s">
-        <v>70</v>
+      <c r="D32" s="67"/>
+      <c r="E32" s="72" t="s">
+        <v>67</v>
       </c>
-      <c r="F32" s="71"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -1883,15 +1883,15 @@
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="41">
+      <c r="B33" s="35">
         <v>1</v>
       </c>
-      <c r="C33" s="72" t="s">
-        <v>38</v>
+      <c r="C33" s="68" t="s">
+        <v>37</v>
       </c>
-      <c r="D33" s="73"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="74" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" s="75"/>
       <c r="G33" s="12"/>
@@ -1904,17 +1904,17 @@
     </row>
     <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="43">
+      <c r="B34" s="37">
         <v>2</v>
       </c>
-      <c r="C34" s="76" t="s">
-        <v>39</v>
+      <c r="C34" s="70" t="s">
+        <v>38</v>
       </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="78" t="s">
-        <v>62</v>
+      <c r="D34" s="71"/>
+      <c r="E34" s="76" t="s">
+        <v>59</v>
       </c>
-      <c r="F34" s="79"/>
+      <c r="F34" s="77"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53" t="s">
-        <v>103</v>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41" t="s">
+        <v>99</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="36" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80" t="s">
-        <v>40</v>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52" t="s">
+        <v>39</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="37" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="81" t="s">
-        <v>48</v>
+      <c r="B37" s="43"/>
+      <c r="C37" s="60" t="s">
+        <v>47</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -1976,13 +1976,13 @@
     </row>
     <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80" t="s">
-        <v>41</v>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52" t="s">
+        <v>40</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -1993,13 +1993,13 @@
     </row>
     <row r="39" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="81" t="s">
-        <v>49</v>
+      <c r="B39" s="53"/>
+      <c r="C39" s="60" t="s">
+        <v>48</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57" t="s">
-        <v>42</v>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43" t="s">
+        <v>41</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -2027,13 +2027,13 @@
     </row>
     <row r="41" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="81" t="s">
-        <v>50</v>
+      <c r="B41" s="52"/>
+      <c r="C41" s="60" t="s">
+        <v>49</v>
       </c>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -2047,8 +2047,8 @@
       <c r="B42" s="12"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -2059,17 +2059,17 @@
     </row>
     <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="B43" s="83" t="s">
-        <v>71</v>
+      <c r="B43" s="59" t="s">
+        <v>68</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84" t="s">
-        <v>72</v>
+      <c r="C43" s="59"/>
+      <c r="D43" s="54" t="s">
+        <v>69</v>
       </c>
-      <c r="E43" s="83" t="s">
-        <v>73</v>
+      <c r="E43" s="59" t="s">
+        <v>70</v>
       </c>
-      <c r="F43" s="83"/>
+      <c r="F43" s="59"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -2080,103 +2080,103 @@
     </row>
     <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="59"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="59"/>
+      <c r="D47" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="59"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="48"/>
+      <c r="E51" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="48"/>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84" t="s">
+      <c r="D52" s="56"/>
+      <c r="E52" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="83"/>
-      <c r="M44" s="12"/>
-    </row>
-    <row r="45" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="M45" s="12"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="86"/>
-      <c r="M46" s="12"/>
-    </row>
-    <row r="47" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="83"/>
-      <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="86"/>
-      <c r="M48" s="12"/>
-    </row>
-    <row r="49" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="86"/>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="62"/>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="86"/>
-      <c r="E52" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="86"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -2187,11 +2187,11 @@
     </row>
     <row r="53" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="85"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="55"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
@@ -2200,11 +2200,11 @@
     </row>
     <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
@@ -2213,15 +2213,15 @@
     </row>
     <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="84" t="s">
-        <v>84</v>
+      <c r="B55" s="48"/>
+      <c r="C55" s="54" t="s">
+        <v>81</v>
       </c>
-      <c r="D55" s="86"/>
-      <c r="E55" s="84" t="s">
-        <v>85</v>
+      <c r="D55" s="56"/>
+      <c r="E55" s="54" t="s">
+        <v>82</v>
       </c>
-      <c r="F55" s="85"/>
+      <c r="F55" s="55"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
@@ -2230,11 +2230,11 @@
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
@@ -2268,8 +2268,8 @@
     <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="26"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
@@ -2319,8 +2319,8 @@
     <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -2389,8 +2389,8 @@
     <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -15987,13 +15987,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="B43:C43"/>
@@ -16008,18 +16013,13 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C41:F41"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16257,7 +16257,7 @@
         <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
